--- a/SECOP_exported_1.xlsx
+++ b/SECOP_exported_1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F322D1-A57E-498F-BEF3-1CA94B7FCA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798CB63C-9FEF-4C4F-881F-B53A08D7EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SECOP_exported_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SECOP_exported_1!$A$1:$T$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SECOP_exported_1!$A$1:$T$112</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2676,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T482"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N42" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="T112" sqref="T112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2865,6 +2865,9 @@
       <c r="S3" t="s">
         <v>45</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2921,6 +2924,9 @@
       <c r="S4" t="s">
         <v>45</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3036,6 +3042,9 @@
       <c r="S6" t="s">
         <v>45</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3092,6 +3101,9 @@
       <c r="S7" t="s">
         <v>45</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3148,6 +3160,9 @@
       <c r="S8" t="s">
         <v>78</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3204,6 +3219,9 @@
       <c r="S9" t="s">
         <v>87</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3260,6 +3278,9 @@
       <c r="S10" t="s">
         <v>95</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3316,6 +3337,9 @@
       <c r="S11" t="s">
         <v>95</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3372,6 +3396,9 @@
       <c r="S12" t="s">
         <v>95</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3428,6 +3455,9 @@
       <c r="S13" t="s">
         <v>115</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3543,6 +3573,9 @@
       <c r="S15" t="s">
         <v>130</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3599,6 +3632,9 @@
       <c r="S16" t="s">
         <v>138</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="189" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3773,6 +3809,9 @@
       <c r="S19" t="s">
         <v>95</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3829,6 +3868,9 @@
       <c r="S20" t="s">
         <v>78</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="189" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4062,6 +4104,9 @@
       <c r="S24" t="s">
         <v>78</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4118,6 +4163,9 @@
       <c r="S25" t="s">
         <v>87</v>
       </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4174,6 +4222,9 @@
       <c r="S26" t="s">
         <v>213</v>
       </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4289,6 +4340,9 @@
       <c r="S28" t="s">
         <v>115</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4345,6 +4399,9 @@
       <c r="S29" t="s">
         <v>78</v>
       </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4401,6 +4458,9 @@
       <c r="S30" t="s">
         <v>87</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4457,6 +4517,9 @@
       <c r="S31" t="s">
         <v>87</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4572,6 +4635,9 @@
       <c r="S33" t="s">
         <v>95</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4628,6 +4694,9 @@
       <c r="S34" t="s">
         <v>95</v>
       </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4684,6 +4753,9 @@
       <c r="S35" t="s">
         <v>87</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4799,6 +4871,9 @@
       <c r="S37" t="s">
         <v>87</v>
       </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4855,6 +4930,9 @@
       <c r="S38" t="s">
         <v>87</v>
       </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4911,6 +4989,9 @@
       <c r="S39" t="s">
         <v>290</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4967,6 +5048,9 @@
       <c r="S40" t="s">
         <v>87</v>
       </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -5200,6 +5284,9 @@
       <c r="S44" t="s">
         <v>328</v>
       </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -5315,6 +5402,9 @@
       <c r="S46" t="s">
         <v>342</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -5371,6 +5461,9 @@
       <c r="S47" t="s">
         <v>78</v>
       </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -5427,8 +5520,11 @@
       <c r="S48" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -5483,8 +5579,11 @@
       <c r="S49" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -5539,8 +5638,11 @@
       <c r="S50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -5595,8 +5697,11 @@
       <c r="S51" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -5651,8 +5756,11 @@
       <c r="S52" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5707,8 +5815,11 @@
       <c r="S53" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -5763,8 +5874,11 @@
       <c r="S54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -5819,8 +5933,11 @@
       <c r="S55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -5875,8 +5992,11 @@
       <c r="S56" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -5931,8 +6051,11 @@
       <c r="S57" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13</v>
       </c>
@@ -5987,8 +6110,11 @@
       <c r="S58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14</v>
       </c>
@@ -6043,8 +6169,11 @@
       <c r="S59" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -6099,8 +6228,11 @@
       <c r="S60" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
@@ -6155,8 +6287,11 @@
       <c r="S61" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -6211,8 +6346,11 @@
       <c r="S62" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -6267,8 +6405,11 @@
       <c r="S63" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19</v>
       </c>
@@ -6323,8 +6464,11 @@
       <c r="S64" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -6379,8 +6523,11 @@
       <c r="S65" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21</v>
       </c>
@@ -6435,8 +6582,11 @@
       <c r="S66" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22</v>
       </c>
@@ -6491,8 +6641,11 @@
       <c r="S67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23</v>
       </c>
@@ -6547,8 +6700,11 @@
       <c r="S68" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>
@@ -6603,8 +6759,11 @@
       <c r="S69" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25</v>
       </c>
@@ -6659,8 +6818,11 @@
       <c r="S70" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>26</v>
       </c>
@@ -6715,8 +6877,11 @@
       <c r="S71" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>27</v>
       </c>
@@ -6771,8 +6936,11 @@
       <c r="S72" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28</v>
       </c>
@@ -6827,8 +6995,11 @@
       <c r="S73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>29</v>
       </c>
@@ -6883,8 +7054,11 @@
       <c r="S74" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>30</v>
       </c>
@@ -6939,8 +7113,11 @@
       <c r="S75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>31</v>
       </c>
@@ -6995,8 +7172,11 @@
       <c r="S76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>32</v>
       </c>
@@ -7051,8 +7231,11 @@
       <c r="S77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>33</v>
       </c>
@@ -7107,8 +7290,11 @@
       <c r="S78" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>34</v>
       </c>
@@ -7163,8 +7349,11 @@
       <c r="S79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>35</v>
       </c>
@@ -7219,8 +7408,11 @@
       <c r="S80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>36</v>
       </c>
@@ -7275,8 +7467,11 @@
       <c r="S81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>37</v>
       </c>
@@ -7331,8 +7526,11 @@
       <c r="S82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>38</v>
       </c>
@@ -7387,8 +7585,11 @@
       <c r="S83" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>39</v>
       </c>
@@ -7443,8 +7644,11 @@
       <c r="S84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>40</v>
       </c>
@@ -7499,8 +7703,11 @@
       <c r="S85" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>41</v>
       </c>
@@ -7555,8 +7762,11 @@
       <c r="S86" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>42</v>
       </c>
@@ -7602,7 +7812,7 @@
       <c r="P87" t="s">
         <v>684</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="Q87" s="3" t="s">
         <v>546</v>
       </c>
       <c r="R87">
@@ -7611,8 +7821,11 @@
       <c r="S87" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>43</v>
       </c>
@@ -7667,8 +7880,11 @@
       <c r="S88" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>44</v>
       </c>
@@ -7723,8 +7939,11 @@
       <c r="S89" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>45</v>
       </c>
@@ -7779,8 +7998,11 @@
       <c r="S90" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>46</v>
       </c>
@@ -7835,8 +8057,11 @@
       <c r="S91" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>47</v>
       </c>
@@ -7891,8 +8116,11 @@
       <c r="S92" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>48</v>
       </c>
@@ -7947,8 +8175,11 @@
       <c r="S93" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>49</v>
       </c>
@@ -8003,8 +8234,11 @@
       <c r="S94" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>50</v>
       </c>
@@ -8059,8 +8293,11 @@
       <c r="S95" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>51</v>
       </c>
@@ -8115,8 +8352,11 @@
       <c r="S96" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>52</v>
       </c>
@@ -8171,8 +8411,11 @@
       <c r="S97" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>53</v>
       </c>
@@ -8227,8 +8470,11 @@
       <c r="S98" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>54</v>
       </c>
@@ -8283,8 +8529,11 @@
       <c r="S99" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>55</v>
       </c>
@@ -8339,8 +8588,11 @@
       <c r="S100" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>56</v>
       </c>
@@ -8395,8 +8647,11 @@
       <c r="S101" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>57</v>
       </c>
@@ -8451,8 +8706,11 @@
       <c r="S102" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>58</v>
       </c>
@@ -8507,8 +8765,11 @@
       <c r="S103" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>59</v>
       </c>
@@ -8563,8 +8824,11 @@
       <c r="S104" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>60</v>
       </c>
@@ -8619,8 +8883,11 @@
       <c r="S105" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>61</v>
       </c>
@@ -8675,8 +8942,11 @@
       <c r="S106" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>62</v>
       </c>
@@ -8731,8 +9001,11 @@
       <c r="S107" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>63</v>
       </c>
@@ -8787,8 +9060,11 @@
       <c r="S108" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>64</v>
       </c>
@@ -8843,8 +9119,11 @@
       <c r="S109" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>65</v>
       </c>
@@ -8899,8 +9178,11 @@
       <c r="S110" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>66</v>
       </c>
@@ -8955,1122 +9237,17 @@
       <c r="S111" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J124"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J125"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J126"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J127"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J128"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J132"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J135"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J136"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J137"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J138"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J139"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J140"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J141"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J142"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J143"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J144"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J145"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J146"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J147"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J148"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J149"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J150"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J151"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J152"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J153"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J154"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J155"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J156"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J157"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J158"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J159"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J160"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J161"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J175"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J176"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J177"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J178"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J179"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J180"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J181"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J182"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J183"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J184"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J185"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J186"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J187"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J188"/>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J189"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J190"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J191"/>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J192"/>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J193"/>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J194"/>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J195"/>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J196"/>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J197"/>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J198"/>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J199"/>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J200"/>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J201"/>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J202"/>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J203"/>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J204"/>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J205"/>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J206"/>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J207"/>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J208"/>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J209"/>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J210"/>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J211"/>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J212"/>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J213"/>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J214"/>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J215"/>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J216"/>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J217"/>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J218"/>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J219"/>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J220"/>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J221"/>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J222"/>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J223"/>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J224"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J225"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J226"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J227"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J228"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J229"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J230"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J231"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J232"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J233"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J234"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J235"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J236"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J237"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J238"/>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J239"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J240"/>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J241"/>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J242"/>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J243"/>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J244"/>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J245"/>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J246"/>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J247"/>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J248"/>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J249"/>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J250"/>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J251"/>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J252"/>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J253"/>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J254"/>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J255"/>
-    </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J256"/>
-    </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J257"/>
-    </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J258"/>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J259"/>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J260"/>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J261"/>
-    </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J262"/>
-    </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J263"/>
-    </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J264"/>
-    </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J265"/>
-    </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J266"/>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J267"/>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J268"/>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J269"/>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J270"/>
-    </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J271"/>
-    </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J272"/>
-    </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J273"/>
-    </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J274"/>
-    </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J275"/>
-    </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J276"/>
-    </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J277"/>
-    </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J278"/>
-    </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J279"/>
-    </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J280"/>
-    </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J281"/>
-    </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J282"/>
-    </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J283"/>
-    </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J284"/>
-    </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J285"/>
-    </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J286"/>
-    </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J287"/>
-    </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J288"/>
-    </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J289"/>
-    </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J290"/>
-    </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J291"/>
-    </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J292"/>
-    </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J293"/>
-    </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J294"/>
-    </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J295"/>
-    </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J296"/>
-    </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J297"/>
-    </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J298"/>
-    </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J299"/>
-    </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J300"/>
-    </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J301"/>
-    </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J302"/>
-    </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J303"/>
-    </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J304"/>
-    </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J305"/>
-    </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J306"/>
-    </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J307"/>
-    </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J308"/>
-    </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J309"/>
-    </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J310"/>
-    </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J311"/>
-    </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J312"/>
-    </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J313"/>
-    </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J314"/>
-    </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J315"/>
-    </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J316"/>
-    </row>
-    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J317"/>
-    </row>
-    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J318"/>
-    </row>
-    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J319"/>
-    </row>
-    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J320"/>
-    </row>
-    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J321"/>
-    </row>
-    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J322"/>
-    </row>
-    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J323"/>
-    </row>
-    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J324"/>
-    </row>
-    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J325"/>
-    </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J326"/>
-    </row>
-    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J327"/>
-    </row>
-    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J328"/>
-    </row>
-    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J329"/>
-    </row>
-    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J330"/>
-    </row>
-    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J331"/>
-    </row>
-    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J332"/>
-    </row>
-    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J333"/>
-    </row>
-    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J334"/>
-    </row>
-    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J335"/>
-    </row>
-    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J336"/>
-    </row>
-    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J337"/>
-    </row>
-    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J338"/>
-    </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J339"/>
-    </row>
-    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J340"/>
-    </row>
-    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J341"/>
-    </row>
-    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J342"/>
-    </row>
-    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J343"/>
-    </row>
-    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J344"/>
-    </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J345"/>
-    </row>
-    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J346"/>
-    </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J347"/>
-    </row>
-    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J348"/>
-    </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J349"/>
-    </row>
-    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J350"/>
-    </row>
-    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J351"/>
-    </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J352"/>
-    </row>
-    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J353"/>
-    </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J354"/>
-    </row>
-    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J355"/>
-    </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J356"/>
-    </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J357"/>
-    </row>
-    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J358"/>
-    </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J359"/>
-    </row>
-    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J360"/>
-    </row>
-    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J361"/>
-    </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J362"/>
-    </row>
-    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J363"/>
-    </row>
-    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J364"/>
-    </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J365"/>
-    </row>
-    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J366"/>
-    </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J367"/>
-    </row>
-    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J368"/>
-    </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J369"/>
-    </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J370"/>
-    </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J371"/>
-    </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J372"/>
-    </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J373"/>
-    </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J374"/>
-    </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J375"/>
-    </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J376"/>
-    </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J377"/>
-    </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J378"/>
-    </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J379"/>
-    </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J380"/>
-    </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J381"/>
-    </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J382"/>
-    </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J383"/>
-    </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J384"/>
-    </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J385"/>
-    </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J386"/>
-    </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J387"/>
-    </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J388"/>
-    </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J389"/>
-    </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J390"/>
-    </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J391"/>
-    </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J392"/>
-    </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J393"/>
-    </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J394"/>
-    </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J395"/>
-    </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J396"/>
-    </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J397"/>
-    </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J398"/>
-    </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J399"/>
-    </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J400"/>
-    </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J401"/>
-    </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J402"/>
-    </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J403"/>
-    </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J404"/>
-    </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J405"/>
-    </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J406"/>
-    </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J407"/>
-    </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J408"/>
-    </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J409"/>
-    </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J410"/>
-    </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J411"/>
-    </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J412"/>
-    </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J413"/>
-    </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J414"/>
-    </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J415"/>
-    </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J416"/>
-    </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J417"/>
-    </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J418"/>
-    </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J419"/>
-    </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J420"/>
-    </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J421"/>
-    </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J422"/>
-    </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J423"/>
-    </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J424"/>
-    </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J425"/>
-    </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J426"/>
-    </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J427"/>
-    </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J428"/>
-    </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J429"/>
-    </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J430"/>
-    </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J431"/>
-    </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J432"/>
-    </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J433"/>
-    </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J434"/>
-    </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J435"/>
-    </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J436"/>
-    </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J437"/>
-    </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J438"/>
-    </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J439"/>
-    </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J440"/>
-    </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J441"/>
-    </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J442"/>
-    </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J443"/>
-    </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J444"/>
-    </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J445"/>
-    </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J446"/>
-    </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J447"/>
-    </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J448"/>
-    </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J449"/>
-    </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J450"/>
-    </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J451"/>
-    </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J452"/>
-    </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J453"/>
-    </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J454"/>
-    </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J455"/>
-    </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J456"/>
-    </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J457"/>
-    </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J458"/>
-    </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J459"/>
-    </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J460"/>
-    </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J461"/>
-    </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J462"/>
-    </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J463"/>
-    </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J464"/>
-    </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J465"/>
-    </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J466"/>
-    </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J467"/>
-    </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J468"/>
-    </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J469"/>
-    </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J470"/>
-    </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J471"/>
-    </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J472"/>
-    </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J473"/>
-    </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J474"/>
-    </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J475"/>
-    </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J476"/>
-    </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J477"/>
-    </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J478"/>
-    </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J479"/>
-    </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J480"/>
-    </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J481"/>
-    </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J482"/>
+      <c r="T111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T112">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
